--- a/problem sets/problem_set_6/missingness_interventions.xlsx
+++ b/problem sets/problem_set_6/missingness_interventions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lytello/Box/school/berkeley/2020_fall/PHW290/PHW290_dev/problem sets/problem_set_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB9E640-3D0F-D64D-A1DC-9C3692A9CACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17953A-E07A-3D4B-B750-8E4BF75C231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="860" windowWidth="27620" windowHeight="17040" xr2:uid="{28D8C3C6-0DC5-BE45-8828-0A1002CBF648}"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="27620" windowHeight="17040" xr2:uid="{28D8C3C6-0DC5-BE45-8828-0A1002CBF648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
   <si>
     <t>date</t>
   </si>
@@ -105,21 +105,6 @@
     <t>C A</t>
   </si>
   <si>
-    <t>05/2018</t>
-  </si>
-  <si>
-    <t>03/2018</t>
-  </si>
-  <si>
-    <t>02/2019</t>
-  </si>
-  <si>
-    <t>02/2015</t>
-  </si>
-  <si>
-    <t>03/2017</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
@@ -148,6 +133,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>25/05/2018</t>
+  </si>
+  <si>
+    <t>25/02/2019</t>
+  </si>
+  <si>
+    <t>25/03/2018</t>
   </si>
 </sst>
 </file>
@@ -504,13 +498,10 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:N1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
@@ -532,12 +523,12 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -552,15 +543,15 @@
         <v>-999</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>36</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -575,15 +566,15 @@
         <v>-999</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>36</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -595,18 +586,18 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -621,15 +612,15 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
+      <c r="A6" t="s">
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -641,18 +632,18 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
+      <c r="A7" t="s">
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -664,18 +655,18 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
+      <c r="A8" t="s">
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -687,18 +678,18 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
+      <c r="A9" t="s">
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -707,15 +698,15 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
+      <c r="A10" t="s">
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -727,18 +718,18 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
+      <c r="A11" t="s">
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -750,18 +741,18 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>36</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -770,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>-999</v>
@@ -780,8 +771,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
+      <c r="A13" t="s">
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -790,18 +781,18 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
+      <c r="A14" t="s">
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -810,18 +801,18 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
+      <c r="A15" t="s">
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -833,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -844,8 +835,8 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
+      <c r="A16" t="s">
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -857,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -868,8 +859,8 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
+      <c r="A17" t="s">
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -881,16 +872,16 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>36</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -902,19 +893,19 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
         <v>36</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -926,10 +917,10 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -937,8 +928,8 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -950,15 +941,15 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
+      <c r="A21" t="s">
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -970,15 +961,15 @@
         <v>-1</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
+      <c r="A22" t="s">
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -990,18 +981,18 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
+      <c r="A23" t="s">
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1013,18 +1004,18 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -1036,18 +1027,18 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
+      <c r="A25" t="s">
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1059,18 +1050,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
+      <c r="A26" t="s">
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -1082,15 +1073,15 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1099,15 +1090,15 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1119,35 +1110,35 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
+      <c r="A29" t="s">
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1159,18 +1150,18 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
+      <c r="A31" t="s">
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -1182,18 +1173,18 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="2" t="s">
-        <v>27</v>
+      <c r="A32" t="s">
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1202,18 +1193,18 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
         <v>36</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1225,18 +1216,18 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>36</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1248,18 +1239,18 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>28</v>
+      <c r="A35" t="s">
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1268,15 +1259,15 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>29</v>
+      <c r="A36" t="s">
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -1288,18 +1279,18 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2" t="s">
-        <v>27</v>
+      <c r="A37" t="s">
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -1308,35 +1299,35 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2" t="s">
-        <v>27</v>
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
+      <c r="A39" t="s">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -1348,41 +1339,41 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>27</v>
+      <c r="A40" t="s">
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2" t="s">
-        <v>27</v>
+      <c r="A41" t="s">
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -1394,18 +1385,18 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
         <v>36</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1417,15 +1408,15 @@
         <v>-999</v>
       </c>
       <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
         <v>36</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1440,32 +1431,32 @@
         <v>-999</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2" t="s">
-        <v>27</v>
+      <c r="A44" t="s">
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="2" t="s">
-        <v>28</v>
+      <c r="A45" t="s">
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
@@ -1474,18 +1465,18 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
+      <c r="A46" t="s">
+        <v>37</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -1497,18 +1488,18 @@
         <v>-1</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>27</v>
+      <c r="A47" t="s">
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1517,18 +1508,18 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="2" t="s">
-        <v>27</v>
+      <c r="A48" t="s">
+        <v>38</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -1540,18 +1531,18 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
         <v>30</v>
-      </c>
-      <c r="B49" t="s">
-        <v>35</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -1560,18 +1551,18 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="2" t="s">
-        <v>27</v>
+      <c r="A50" t="s">
+        <v>38</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -1583,10 +1574,10 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>0</v>
